--- a/biology/Médecine/1149_en_santé_et_médecine/1149_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1149_en_santé_et_médecine/1149_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1149_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1149_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1149 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1149_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1149_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation à Troyes, en Champagne, d'une maison-Dieu Saint-Étienne qui, sous le nom d'Hôtel-Dieu-le-Comte, restera en fonction jusqu'en 1988[1] et dont les murs abritent aujourd'hui un musée de l'Apothicairerie consacré à l'histoire de la médecine et de la pharmacopée[2].
-À son retour de croisade, le roi de France Louis VII fonde l'hôtel-Dieu de Montlhéry, dont le porche aujourd'hui conservé s'orne des allégories de la Peste, de la Fièvre et du Mal des ardents[3].
-1149-1158 : Raymond, évêque de Maguelone, promulgue les statuts de la léproserie Saint-Lazare de Montpellier, premiers règlements connus de cette sorte[4].
-1149 ou 1187 : fondation près de Cantorbéry, sur la route de Douvres dans le Kent en Angleterre, par l'abbé de Saint-Augustin, de l'hôpital St. Lawrence « pour les moines atteints de la lèpre ou d'autres maladies contagieuses et comme maison d'aumônes pour les parents pauvres des deux sexes de ces moines[5] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation à Troyes, en Champagne, d'une maison-Dieu Saint-Étienne qui, sous le nom d'Hôtel-Dieu-le-Comte, restera en fonction jusqu'en 1988 et dont les murs abritent aujourd'hui un musée de l'Apothicairerie consacré à l'histoire de la médecine et de la pharmacopée.
+À son retour de croisade, le roi de France Louis VII fonde l'hôtel-Dieu de Montlhéry, dont le porche aujourd'hui conservé s'orne des allégories de la Peste, de la Fièvre et du Mal des ardents.
+1149-1158 : Raymond, évêque de Maguelone, promulgue les statuts de la léproserie Saint-Lazare de Montpellier, premiers règlements connus de cette sorte.
+1149 ou 1187 : fondation près de Cantorbéry, sur la route de Douvres dans le Kent en Angleterre, par l'abbé de Saint-Augustin, de l'hôpital St. Lawrence « pour les moines atteints de la lèpre ou d'autres maladies contagieuses et comme maison d'aumônes pour les parents pauvres des deux sexes de ces moines ».</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1149_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1149_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1141-1149 : fl. Arnaud, médecin, cité dans une charte de l'abbaye Saint-Étienne de Baignes en Saintonge[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1141-1149 : fl. Arnaud, médecin, cité dans une charte de l'abbaye Saint-Étienne de Baignes en Saintonge.</t>
         </is>
       </c>
     </row>
